--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,776 +512,1049 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>205.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>260101</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>景顺长城优选混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>77.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2309</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>260111</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>景顺长城公司治理混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.51</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>340006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴全全球视野股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008378</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>兴全社会价值三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1281,7 +1564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1585,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,25 +1615,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>181.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1350,26 +1653,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1691,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1406,25 +1729,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1434,26 +1767,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>60.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1805,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1843,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1518,26 +1881,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166009</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1546,26 +1919,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>40.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5248</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1574,26 +1957,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>008378</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>兴全社会价值三年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>55.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4819</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1602,26 +1995,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501098</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>37.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3768</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1630,26 +2033,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3733</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1658,26 +2071,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>中欧新动力混合(LOF) -A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2351</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +2109,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1872</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1714,26 +2147,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1210</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1742,26 +2185,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1770,26 +2223,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1808,15 +2271,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>74.75</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.17</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1826,26 +2299,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>860001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>光大阳光混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1854,26 +2337,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1882,26 +2375,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1910,26 +2413,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4354</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1938,25 +2451,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1966,25 +2489,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1994,26 +2527,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2022,26 +2565,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2050,26 +2603,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2078,26 +2641,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2106,26 +2679,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2134,26 +2717,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2162,26 +2755,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2190,26 +2793,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>501098</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2218,26 +2831,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2246,26 +2869,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2274,26 +2907,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2302,26 +2945,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008378</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兴全社会价值三年持有期混合</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2330,26 +2983,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>前海开源睿远稳健增利混合 - A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2358,26 +3021,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2386,26 +3059,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>860001</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>光大阳光混合A</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2414,26 +3097,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>860036</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>光大阳光混合B</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2442,26 +3135,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>860037</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>光大阳光混合C</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2470,26 +3173,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2498,26 +3211,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>000933</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>前海开源睿远稳健增利混合 - C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2526,26 +3249,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2554,26 +3287,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>860036</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>光大阳光混合B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2582,26 +3325,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2610,26 +3363,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>860037</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3371,7 +3372,6 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>94.76</t>
@@ -3387,6 +3387,3926 @@
       </c>
       <c r="H48" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>360.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7299</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6885</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5339</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1716</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0626</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8843</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7646</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7447</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6896</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6832</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7312,4 +7313,3402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.3229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9814</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6693</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8983</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3790</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10711,4 +10712,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10720,7 +10721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10731,17 +10732,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10751,14 +10772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.28</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -10767,14 +10810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>81.06</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10783,14 +10848,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.33</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -10799,13 +10886,4823 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7287</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1489</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7648</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7435</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5113</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4490</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>47.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15601,7 +15602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15612,17 +15613,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15632,14 +15653,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80.66</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7108</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -15648,14 +15691,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.28</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -15664,14 +15729,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81.06</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.6615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -15680,14 +15767,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.33</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.7731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -15696,13 +15805,5067 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4640</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9643</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6958</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6918</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5786</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5605</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4912</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4763</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4025</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3904</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3871</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3530</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0398</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5701</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5635</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20748,7 +20749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20759,17 +20760,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20779,14 +20800,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.64</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -20795,14 +20838,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.66</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -20811,14 +20876,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67.28</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -20827,14 +20914,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>102</v>
-      </c>
-      <c r="D5" t="n">
-        <v>81.06</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -20843,14 +20952,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.33</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -20859,13 +20990,2575 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7841</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5277</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3091</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0512</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8032</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>55.34</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>98.64</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D4" t="n">
-        <v>80.66</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>67.28</v>
+        <v>80.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>81.06</v>
+        <v>67.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>38.33</v>
+        <v>81.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.51</v>
       </c>
     </row>
@@ -600,6 +617,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1772</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3275,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8421,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13301,7 +14780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16699,7 +18178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20619,7 +22098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22454,7 +23933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688099-晶晨股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>18.64</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>55.34</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>98.64</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D5" t="n">
-        <v>80.66</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D6" t="n">
-        <v>67.28</v>
+        <v>80.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>81.06</v>
+        <v>67.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D8" t="n">
-        <v>38.33</v>
+        <v>81.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1143 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>32.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2309</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1747,2032 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4754,7 +7910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9900,7 +13056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14780,7 +17936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18178,7 +21334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22098,7 +25254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23931,1117 +27087,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163406</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全合润混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>205.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.8910</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.1734</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4787</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>62.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3780</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.1966</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.1649</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.6696</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6535</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.6468</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008378</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴全社会价值三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>53.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.4273</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>38.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.3621</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>30.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.2309</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.1362</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>340006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴全全球视野股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7837</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.7022</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4856</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4002</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1571</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1245</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>78.84</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>